--- a/Code_python/Data/extraction/USDCNY.xlsx
+++ b/Code_python/Data/extraction/USDCNY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5075" uniqueCount="5075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="5076">
   <si>
     <t>2001-05-31</t>
   </si>
@@ -15239,6 +15239,9 @@
   </si>
   <si>
     <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
   </si>
 </sst>
 </file>
@@ -15596,7 +15599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5076"/>
+  <dimension ref="A1:B5077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -56210,6 +56213,14 @@
         <v>6.582399845123291</v>
       </c>
     </row>
+    <row r="5077" spans="1:2">
+      <c r="A5077" t="s">
+        <v>5075</v>
+      </c>
+      <c r="B5077">
+        <v>6.560800075531006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code_python/Data/extraction/USDCNY.xlsx
+++ b/Code_python/Data/extraction/USDCNY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="5076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5111" uniqueCount="5111">
   <si>
     <t>2001-05-31</t>
   </si>
@@ -15242,6 +15242,111 @@
   </si>
   <si>
     <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
   </si>
 </sst>
 </file>
@@ -15599,7 +15704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5077"/>
+  <dimension ref="A1:B5112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -56218,7 +56323,287 @@
         <v>5075</v>
       </c>
       <c r="B5077">
-        <v>6.560800075531006</v>
+        <v>6.561999797821045</v>
+      </c>
+    </row>
+    <row r="5078" spans="1:2">
+      <c r="A5078" t="s">
+        <v>5076</v>
+      </c>
+      <c r="B5078">
+        <v>6.584499835968018</v>
+      </c>
+    </row>
+    <row r="5079" spans="1:2">
+      <c r="A5079" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B5079">
+        <v>6.590199947357178</v>
+      </c>
+    </row>
+    <row r="5080" spans="1:2">
+      <c r="A5080" t="s">
+        <v>5078</v>
+      </c>
+      <c r="B5080">
+        <v>6.577499866485596</v>
+      </c>
+    </row>
+    <row r="5081" spans="1:2">
+      <c r="A5081" t="s">
+        <v>5079</v>
+      </c>
+      <c r="B5081">
+        <v>6.57450008392334</v>
+      </c>
+    </row>
+    <row r="5082" spans="1:2">
+      <c r="A5082" t="s">
+        <v>5080</v>
+      </c>
+      <c r="B5082">
+        <v>6.575900077819824</v>
+      </c>
+    </row>
+    <row r="5083" spans="1:2">
+      <c r="A5083" t="s">
+        <v>5081</v>
+      </c>
+      <c r="B5083">
+        <v>6.577799797058105</v>
+      </c>
+    </row>
+    <row r="5084" spans="1:2">
+      <c r="A5084" t="s">
+        <v>5082</v>
+      </c>
+      <c r="B5084">
+        <v>6.570799827575684</v>
+      </c>
+    </row>
+    <row r="5085" spans="1:2">
+      <c r="A5085" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B5085">
+        <v>6.562399864196777</v>
+      </c>
+    </row>
+    <row r="5086" spans="1:2">
+      <c r="A5086" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B5086">
+        <v>6.541399955749512</v>
+      </c>
+    </row>
+    <row r="5087" spans="1:2">
+      <c r="A5087" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B5087">
+        <v>6.530600070953369</v>
+      </c>
+    </row>
+    <row r="5088" spans="1:2">
+      <c r="A5088" t="s">
+        <v>5086</v>
+      </c>
+      <c r="B5088">
+        <v>6.52869987487793</v>
+      </c>
+    </row>
+    <row r="5089" spans="1:2">
+      <c r="A5089" t="s">
+        <v>5087</v>
+      </c>
+      <c r="B5089">
+        <v>6.531700134277344</v>
+      </c>
+    </row>
+    <row r="5090" spans="1:2">
+      <c r="A5090" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B5090">
+        <v>6.542200088500977</v>
+      </c>
+    </row>
+    <row r="5091" spans="1:2">
+      <c r="A5091" t="s">
+        <v>5089</v>
+      </c>
+      <c r="B5091">
+        <v>6.544400215148926</v>
+      </c>
+    </row>
+    <row r="5092" spans="1:2">
+      <c r="A5092" t="s">
+        <v>5090</v>
+      </c>
+      <c r="B5092">
+        <v>6.545700073242188</v>
+      </c>
+    </row>
+    <row r="5093" spans="1:2">
+      <c r="A5093" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B5093">
+        <v>6.549699783325195</v>
+      </c>
+    </row>
+    <row r="5094" spans="1:2">
+      <c r="A5094" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B5094">
+        <v>6.538300037384033</v>
+      </c>
+    </row>
+    <row r="5095" spans="1:2">
+      <c r="A5095" t="s">
+        <v>5093</v>
+      </c>
+      <c r="B5095">
+        <v>6.531300067901611</v>
+      </c>
+    </row>
+    <row r="5096" spans="1:2">
+      <c r="A5096" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B5096">
+        <v>6.532100200653076</v>
+      </c>
+    </row>
+    <row r="5097" spans="1:2">
+      <c r="A5097" t="s">
+        <v>5095</v>
+      </c>
+      <c r="B5097">
+        <v>6.536699771881104</v>
+      </c>
+    </row>
+    <row r="5098" spans="1:2">
+      <c r="A5098" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B5098">
+        <v>6.548200130462646</v>
+      </c>
+    </row>
+    <row r="5099" spans="1:2">
+      <c r="A5099" t="s">
+        <v>5097</v>
+      </c>
+      <c r="B5099">
+        <v>6.542200088500977</v>
+      </c>
+    </row>
+    <row r="5100" spans="1:2">
+      <c r="A5100" t="s">
+        <v>5098</v>
+      </c>
+      <c r="B5100">
+        <v>6.539599895477295</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:2">
+      <c r="A5101" t="s">
+        <v>5099</v>
+      </c>
+      <c r="B5101">
+        <v>6.528999805450439</v>
+      </c>
+    </row>
+    <row r="5102" spans="1:2">
+      <c r="A5102" t="s">
+        <v>5100</v>
+      </c>
+      <c r="B5102">
+        <v>6.540800094604492</v>
+      </c>
+    </row>
+    <row r="5103" spans="1:2">
+      <c r="A5103" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B5103">
+        <v>6.535600185394287</v>
+      </c>
+    </row>
+    <row r="5104" spans="1:2">
+      <c r="A5104" t="s">
+        <v>5102</v>
+      </c>
+      <c r="B5104">
+        <v>6.53000020980835</v>
+      </c>
+    </row>
+    <row r="5105" spans="1:2">
+      <c r="A5105" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B5105">
+        <v>6.522200107574463</v>
+      </c>
+    </row>
+    <row r="5106" spans="1:2">
+      <c r="A5106" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B5106">
+        <v>6.531700134277344</v>
+      </c>
+    </row>
+    <row r="5107" spans="1:2">
+      <c r="A5107" t="s">
+        <v>5105</v>
+      </c>
+      <c r="B5107">
+        <v>6.525700092315674</v>
+      </c>
+    </row>
+    <row r="5108" spans="1:2">
+      <c r="A5108" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B5108">
+        <v>6.46049976348877</v>
+      </c>
+    </row>
+    <row r="5109" spans="1:2">
+      <c r="A5109" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B5109">
+        <v>6.4552001953125</v>
+      </c>
+    </row>
+    <row r="5110" spans="1:2">
+      <c r="A5110" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B5110">
+        <v>6.460700035095215</v>
+      </c>
+    </row>
+    <row r="5111" spans="1:2">
+      <c r="A5111" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B5111">
+        <v>6.477200031280518</v>
+      </c>
+    </row>
+    <row r="5112" spans="1:2">
+      <c r="A5112" t="s">
+        <v>5110</v>
+      </c>
+      <c r="B5112">
+        <v>6.474999904632568</v>
       </c>
     </row>
   </sheetData>
